--- a/notebooks/CohQuAD_LLM_Coh_inc_pt_br/CohQuAD_coh_inc_ptbr.xlsx
+++ b/notebooks/CohQuAD_LLM_Coh_inc_pt_br/CohQuAD_coh_inc_ptbr.xlsx
@@ -23,7 +23,7 @@
   </si>
   <si>
     <t>Texto:"&lt;TEXTO&gt;"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -4649,7 +4649,7 @@
   <si>
     <t>#1
 Texto:"Como enfileirar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -4690,7 +4690,7 @@
   <si>
     <t xml:space="preserve">#1_pert
 Texto:"Como enfileirar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -4734,7 +4734,7 @@
   <si>
     <t xml:space="preserve">#2
 Texto:"Como desenfileirar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -4777,7 +4777,7 @@
   <si>
     <t>#2_pert
 Texto:"Como desenfileirar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -4818,7 +4818,7 @@
   <si>
     <t>#3
 Texto:"Como empilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -4860,7 +4860,7 @@
   <si>
     <t>#3_pert
 Texto:"Como empilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -4902,7 +4902,7 @@
   <si>
     <t xml:space="preserve">#4
 Texto:"Como empilhar e desempilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -4946,7 +4946,7 @@
   <si>
     <t>#4_pert
 Texto:"Como empilhar e desempilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -4987,7 +4987,7 @@
   <si>
     <t xml:space="preserve">#5
 Texto:"Como empilhar elementos em uma estrutura de dados pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5030,7 +5030,7 @@
   <si>
     <t>#5_pert
 Texto:"Como empilhar elementos em uma estrutura de dados fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5072,7 +5072,7 @@
   <si>
     <t xml:space="preserve">#6
 Texto:"Como empilhar e desempilhar elementos em uma estrutura de dados pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5115,7 +5115,7 @@
   <si>
     <t>#6_pert
 Texto:"Como empilhar e desempilhar elementos em uma estrutura de dados fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5156,7 +5156,7 @@
   <si>
     <t>#7
 Texto:"Como desempilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5199,7 +5199,7 @@
   <si>
     <t>#7_pert
 Texto:"Como desempilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5240,7 +5240,7 @@
   <si>
     <t>#8
 Texto:"Como desempilhar elementos em uma estrutura de dados pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5283,7 +5283,7 @@
   <si>
     <t>#8_pert
 Texto:"Como desempilhar elementos em uma estrutura de dados fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5325,7 +5325,7 @@
   <si>
     <t>#9
 Texto:"O que é uma pilha e como empilhar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5370,7 +5370,7 @@
   <si>
     <t>#9_pert
 Texto:"O que é uma fila e como empilhar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5412,7 +5412,7 @@
   <si>
     <t>#10
 Texto:"O que é uma fila e como enfileirar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5456,7 +5456,7 @@
   <si>
     <t xml:space="preserve">#10_pert
 Texto:"O que é uma pilha e como enfileirar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5499,7 +5499,7 @@
   <si>
     <t xml:space="preserve">#11
 Texto:"O que é uma fila e como desenfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5543,7 +5543,7 @@
   <si>
     <t>#11_pert
 Texto:"O que é uma pilha e como desenfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5584,7 +5584,7 @@
   <si>
     <t xml:space="preserve">#12
 Texto:"O que é uma pilha e como desempilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5628,7 +5628,7 @@
   <si>
     <t>#12_pert
 Texto:"O que é uma fila e como desempilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5669,7 +5669,7 @@
   <si>
     <t xml:space="preserve">#13
 Texto:"O que é uma fila e como enfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5713,7 +5713,7 @@
   <si>
     <t xml:space="preserve">#13_pert
 Texto:"O que é uma pilha e como enfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5756,7 +5756,7 @@
   <si>
     <t>#14
 Texto:"O que é uma pilha e como empilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5798,7 +5798,7 @@
   <si>
     <t>#14_pert
 Texto:"O que é uma fila e como empilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5840,7 +5840,7 @@
   <si>
     <t>#15
 Texto:"O que é uma pilha e como empilhar e desempilhar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5882,7 +5882,7 @@
   <si>
     <t xml:space="preserve">#15_pert
 Texto:"O que é uma fila e como empilhar e desempilhar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -5924,7 +5924,7 @@
   <si>
     <t>#16
 Texto:"O que é uma fila e como enfileirar e desenfileirar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -5973,7 +5973,7 @@
   <si>
     <t>#16_pert
 Texto:"O que é uma pilha e como enfileirar e desenfileirar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -6014,7 +6014,7 @@
   <si>
     <t xml:space="preserve">#17
 Texto:"Como são implementadas as operações de empilhar e desempilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -6057,7 +6057,7 @@
   <si>
     <t xml:space="preserve">#17_pert
 Texto:"Como são implementadas as operações de empilhar e desempilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -6101,7 +6101,7 @@
   <si>
     <t>#18
 Texto:"Como são implementadas as operações de enfileirar e desenfileirar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -6155,7 +6155,7 @@
   <si>
     <t xml:space="preserve">#18_pert
 Texto:"Como são implementadas as operações de enfileirar e desenfileirar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -6202,7 +6202,7 @@
   <si>
     <t>#19
 Texto:"Em uma pilha a operação de empilhar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -6245,7 +6245,7 @@
   <si>
     <t>#19_pert
 Texto:"Em uma pilha a operação de enfileirar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -6288,7 +6288,7 @@
   <si>
     <t xml:space="preserve">20#
 Texto:"Em uma fila a operação de enfileirar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -6330,7 +6330,7 @@
   <si>
     <t>#20_pert
 Texto:"Em uma fila a operação de empilhar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;</t>
   </si>
@@ -6373,7 +6373,7 @@
   <si>
     <t xml:space="preserve">
 Texto:"&lt;TEXTO&gt;"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </t>
@@ -7473,11 +7473,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1224836194"/>
-        <c:axId val="2078718226"/>
+        <c:axId val="596618679"/>
+        <c:axId val="1895954342"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1224836194"/>
+        <c:axId val="596618679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7529,10 +7529,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2078718226"/>
+        <c:crossAx val="1895954342"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2078718226"/>
+        <c:axId val="1895954342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7617,7 +7617,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1224836194"/>
+        <c:crossAx val="596618679"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7733,11 +7733,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1964751970"/>
-        <c:axId val="1896709583"/>
+        <c:axId val="675414831"/>
+        <c:axId val="692243926"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1964751970"/>
+        <c:axId val="675414831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7789,10 +7789,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1896709583"/>
+        <c:crossAx val="692243926"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1896709583"/>
+        <c:axId val="692243926"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7877,7 +7877,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1964751970"/>
+        <c:crossAx val="675414831"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -7993,11 +7993,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1177040671"/>
-        <c:axId val="913601416"/>
+        <c:axId val="1258573520"/>
+        <c:axId val="2008546868"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1177040671"/>
+        <c:axId val="1258573520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8049,10 +8049,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913601416"/>
+        <c:crossAx val="2008546868"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="913601416"/>
+        <c:axId val="2008546868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8129,7 +8129,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1177040671"/>
+        <c:crossAx val="1258573520"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8245,11 +8245,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2049232346"/>
-        <c:axId val="625916321"/>
+        <c:axId val="1370209620"/>
+        <c:axId val="1021337713"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2049232346"/>
+        <c:axId val="1370209620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8301,10 +8301,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625916321"/>
+        <c:crossAx val="1021337713"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="625916321"/>
+        <c:axId val="1021337713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8381,7 +8381,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2049232346"/>
+        <c:crossAx val="1370209620"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8530,11 +8530,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2105215632"/>
-        <c:axId val="47951175"/>
+        <c:axId val="1400392426"/>
+        <c:axId val="194631604"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105215632"/>
+        <c:axId val="1400392426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8586,10 +8586,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47951175"/>
+        <c:crossAx val="194631604"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47951175"/>
+        <c:axId val="194631604"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8655,7 +8655,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105215632"/>
+        <c:crossAx val="1400392426"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -43370,13 +43370,13 @@
       <c r="D107" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A107),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B107))"),"#1
 Texto:""Como enfileirar elementos em uma fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justificativa: &lt;JU"&amp;"STIFICATIVA&gt;
+Justificativa: &lt;"&amp;"JUSTIFICATIVA&gt;
 ")</f>
         <v>#1
 Texto:"Como enfileirar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43407,13 +43407,13 @@
       <c r="D108" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A108),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B108))"),"#1_pert_0
 Texto:""Como enfileirar elementos em uma pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justificat"&amp;"iva: &lt;JUSTIFICATIVA&gt;
+Justific"&amp;"ativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#1_pert_0
 Texto:"Como enfileirar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43444,13 +43444,13 @@
       <c r="D109" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A109),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B109))"),"#2
 Texto:""Como desenfileirar elementos em uma fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justificativa: "&amp;"&lt;JUSTIFICATIVA&gt;
+Justificativa"&amp;": &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#2
 Texto:"Como desenfileirar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43481,13 +43481,13 @@
       <c r="D110" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A110),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B110))"),"#2_pert_0
 Texto:""Como desenfileirar elementos em uma pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justifi"&amp;"cativa: &lt;JUSTIFICATIVA&gt;
+Justi"&amp;"ficativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#2_pert_0
 Texto:"Como desenfileirar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43518,13 +43518,13 @@
       <c r="D111" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A111),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B111))"),"#3
 Texto:""Como empilhar elementos em uma pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justificativa: &lt;JUS"&amp;"TIFICATIVA&gt;
+Justificativa: &lt;J"&amp;"USTIFICATIVA&gt;
 ")</f>
         <v>#3
 Texto:"Como empilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43555,13 +43555,13 @@
       <c r="D112" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A112),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B112))"),"#3_pert_0
 Texto:""Como empilhar elementos em uma fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justificativa"&amp;": &lt;JUSTIFICATIVA&gt;
+Justificati"&amp;"va: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#3_pert_0
 Texto:"Como empilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43592,13 +43592,13 @@
       <c r="D113" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A113),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B113))"),"#4
 Texto:""Como empilhar e desempilhar elementos em uma pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justi"&amp;"ficativa: &lt;JUSTIFICATIVA&gt;
+Jus"&amp;"tificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#4
 Texto:"Como empilhar e desempilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43629,13 +43629,13 @@
       <c r="D114" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A114),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B114))"),"#4_pert_0
 Texto:""Como empilhar e desempilhar elementos em uma fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;"&amp;"
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0"&amp;")&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#4_pert_0
 Texto:"Como empilhar e desempilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43666,13 +43666,13 @@
       <c r="D115" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A115),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B115))"),"#5
 Texto:""Como empilhar elementos em uma estrutura de dados pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-"&amp;"Justificativa: &lt;JUSTIFICATIVA&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)"&amp;"&gt;
+Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#5
 Texto:"Como empilhar elementos em uma estrutura de dados pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43703,13 +43703,13 @@
       <c r="D116" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A116),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B116))"),"#5_pert_0
 Texto:""Como empilhar elementos em uma estrutura de dados fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerent"&amp;"e(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoere"&amp;"nte(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#5_pert_0
 Texto:"Como empilhar elementos em uma estrutura de dados fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43740,13 +43740,13 @@
       <c r="D117" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A117),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B117))"),"#6
 Texto:""Como empilhar e desempilhar elementos em uma estrutura de dados pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;i"&amp;"ncoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou "&amp;"&lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#6
 Texto:"Como empilhar e desempilhar elementos em uma estrutura de dados pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43777,13 +43777,13 @@
       <c r="D118" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A118),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B118))"),"#6_pert_0
 Texto:""Como empilhar e desempilhar elementos em uma estrutura de dados fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt;"&amp;" ou &lt;incoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1"&amp;")&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#6_pert_0
 Texto:"Como empilhar e desempilhar elementos em uma estrutura de dados fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43814,13 +43814,13 @@
       <c r="D119" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A119),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B119))"),"#7
 Texto:""Como desempilhar elementos em uma pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justificativa: &lt;"&amp;"JUSTIFICATIVA&gt;
+Justificativa:"&amp;" &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#7
 Texto:"Como desempilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43851,13 +43851,13 @@
       <c r="D120" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A120),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B120))"),"#7_pert_0
 Texto:""Como desempilhar elementos em uma fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justificat"&amp;"iva: &lt;JUSTIFICATIVA&gt;
+Justific"&amp;"ativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#7_pert_0
 Texto:"Como desempilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43888,13 +43888,13 @@
       <c r="D121" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A121),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B121))"),"#8
 Texto:""Como desempilhar elementos em uma estrutura de dados pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0"&amp;")&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoerente"&amp;"(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#8
 Texto:"Como desempilhar elementos em uma estrutura de dados pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43925,13 +43925,13 @@
       <c r="D122" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A122),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B122))"),"#8_pert_0
 Texto:""Como desempilhar elementos em uma estrutura de dados fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoer"&amp;"ente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;inco"&amp;"erente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#8_pert_0
 Texto:"Como desempilhar elementos em uma estrutura de dados fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43962,13 +43962,13 @@
       <c r="D123" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A123),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B123))"),"#9
 Texto:""O que é uma pilha e como empilhar seu elemento?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justifica"&amp;"tiva: &lt;JUSTIFICATIVA&gt;
+Justifi"&amp;"cativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#9
 Texto:"O que é uma pilha e como empilhar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -43999,13 +43999,13 @@
       <c r="D124" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A124),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B124))"),"#9_pert_0
 Texto:""O que é uma fila e como empilhar seu elemento?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Jus"&amp;"tificativa: &lt;JUSTIFICATIVA&gt;
+J"&amp;"ustificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#9_pert_0
 Texto:"O que é uma fila e como empilhar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44036,13 +44036,13 @@
       <c r="D125" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A125),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B125))"),"#10
 Texto:""O que é uma fila e como enfileirar seu elemento?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Justifi"&amp;"cativa: &lt;JUSTIFICATIVA&gt;
+Justi"&amp;"ficativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#10
 Texto:"O que é uma fila e como enfileirar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44073,13 +44073,13 @@
       <c r="D126" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A126),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B126))"),"#10_pert_0
 Texto:""O que é uma pilha e como enfileirar seu elemento?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;"&amp;"
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0"&amp;")&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#10_pert_0
 Texto:"O que é uma pilha e como enfileirar seu elemento?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44110,13 +44110,13 @@
       <c r="D127" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A127),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B127))"),"#11
 Texto:""O que é uma fila e como desenfileirar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-"&amp;"Justificativa: &lt;JUSTIFICATIVA&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)"&amp;"&gt;
+Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#11
 Texto:"O que é uma fila e como desenfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44147,13 +44147,13 @@
       <c r="D128" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A128),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B128))"),"#11_pert_0
 Texto:""O que é uma pilha e como desenfileirar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoere"&amp;"nte(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoe"&amp;"rente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#11_pert_0
 Texto:"O que é uma pilha e como desenfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44184,13 +44184,13 @@
       <c r="D129" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A129),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B129))"),"#12
 Texto:""O que é uma pilha e como desempilhar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-J"&amp;"ustificativa: &lt;JUSTIFICATIVA&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;"&amp;"
+Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#12
 Texto:"O que é uma pilha e como desempilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44221,13 +44221,13 @@
       <c r="D130" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A130),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B130))"),"#12_pert_0
 Texto:""O que é uma fila e como desempilhar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente"&amp;"(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoeren"&amp;"te(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#12_pert_0
 Texto:"O que é uma fila e como desempilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44258,13 +44258,13 @@
       <c r="D131" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A131),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B131))"),"#13
 Texto:""O que é uma fila e como enfileirar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Jus"&amp;"tificativa: &lt;JUSTIFICATIVA&gt;
+J"&amp;"ustificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#13
 Texto:"O que é uma fila e como enfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44295,13 +44295,13 @@
       <c r="D132" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A132),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B132))"),"#13_pert_0
 Texto:""O que é uma pilha e como enfileirar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente"&amp;"(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoeren"&amp;"te(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#13_pert_0
 Texto:"O que é uma pilha e como enfileirar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44332,13 +44332,13 @@
       <c r="D133" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A133),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B133))"),"#14
 Texto:""O que é uma pilha e como empilhar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
-Just"&amp;"ificativa: &lt;JUSTIFICATIVA&gt;
+Ju"&amp;"stificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#14
 Texto:"O que é uma pilha e como empilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44369,13 +44369,13 @@
       <c r="D134" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A134),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B134))"),"#14_pert_0
 Texto:""O que é uma fila e como empilhar um elemento nela?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)"&amp;"&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoerente("&amp;"0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#14_pert_0
 Texto:"O que é uma fila e como empilhar um elemento nela?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44406,13 +44406,13 @@
       <c r="D135" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A135),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B135))"),"#15
 Texto:""O que é uma pilha e como empilhar e desempilhar seus elementos?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoere"&amp;"nte(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoe"&amp;"rente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#15
 Texto:"O que é uma pilha e como empilhar e desempilhar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44443,13 +44443,13 @@
       <c r="D136" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A136),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B136))"),"#15_pert_0
 Texto:""O que é uma fila e como empilhar e desempilhar seus elementos?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;i"&amp;"ncoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou "&amp;"&lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#15_pert_0
 Texto:"O que é uma fila e como empilhar e desempilhar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44480,13 +44480,13 @@
       <c r="D137" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A137),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B137))"),"#16
 Texto:""O que é uma fila e como enfileirar e desenfileirar seus elementos?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;inco"&amp;"erente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;in"&amp;"coerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#16
 Texto:"O que é uma fila e como enfileirar e desenfileirar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44517,13 +44517,13 @@
       <c r="D138" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A138),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B138))"),"#16_pert_0
 Texto:""O que é uma pilha e como enfileirar e desenfileirar seus elementos?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; "&amp;"ou &lt;incoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)"&amp;"&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#16_pert_0
 Texto:"O que é uma pilha e como enfileirar e desenfileirar seus elementos?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44554,13 +44554,13 @@
       <c r="D139" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A139),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B139))"),"#17
 Texto:""Como são implementadas as operações de empilhar e desempilhar elementos em uma pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;co"&amp;"erente(1)&gt; ou &lt;incoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;"&amp;"coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#17
 Texto:"Como são implementadas as operações de empilhar e desempilhar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44591,13 +44591,13 @@
       <c r="D140" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A140),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B140))"),"#17_pert_0
 Texto:""Como são implementadas as operações de empilhar e desempilhar elementos em uma fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultad"&amp;"o: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Result"&amp;"ado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#17_pert_0
 Texto:"Como são implementadas as operações de empilhar e desempilhar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44628,13 +44628,13 @@
       <c r="D141" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A141),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B141))"),"#18
 Texto:""Como são implementadas as operações de enfileirar e desenfileirar elementos em uma fila?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: "&amp;"&lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado"&amp;": &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#18
 Texto:"Como são implementadas as operações de enfileirar e desenfileirar elementos em uma fila?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44665,13 +44665,13 @@
       <c r="D142" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A142),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B142))"),"#18_pert_0
 Texto:""Como são implementadas as operações de enfileirar e desenfileirar elementos em uma pilha?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Res"&amp;"ultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+R"&amp;"esultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#18_pert_0
 Texto:"Como são implementadas as operações de enfileirar e desenfileirar elementos em uma pilha?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44702,13 +44702,13 @@
       <c r="D143" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A143),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B143))"),"#19
 Texto:""Em uma pilha a operação de empilhar ocorre em qual extremidade?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoere"&amp;"nte(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;incoe"&amp;"rente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#19
 Texto:"Em uma pilha a operação de empilhar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44739,13 +44739,13 @@
       <c r="D144" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A144),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B144))"),"#19_pert_0
 Texto:""Em uma pilha a operação de enfileirar ocorre em qual extremidade?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou"&amp;" &lt;incoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; "&amp;"ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#19_pert_0
 Texto:"Em uma pilha a operação de enfileirar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44776,13 +44776,13 @@
       <c r="D145" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A145),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B145))"),"#20
 Texto:""Em uma fila a operação de enfileirar ocorre em qual extremidade?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;incoer"&amp;"ente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou &lt;inco"&amp;"erente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#20
 Texto:"Em uma fila a operação de enfileirar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
@@ -44813,13 +44813,13 @@
       <c r="D146" s="194" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("CONCATENATE(""#"",TO_TEXT(A146),SUBSTITUTE($C$106,""&lt;TEXTO&gt;"",B146))"),"#20_pert_0
 Texto:""Em uma fila a operação de empilhar ocorre em qual extremidade?""
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
-Resultado: &lt;coerente(1)&gt; ou &lt;i"&amp;"ncoerente(0)&gt;
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Resultado: &lt;coerente(1)&gt; ou "&amp;"&lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 ")</f>
         <v>#20_pert_0
 Texto:"Em uma fila a operação de empilhar ocorre em qual extremidade?"
-Tarefa: Dado o texto acima forneça o resultado da classifação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
+Tarefa: Dado o texto acima forneça o resultado da classificação como coerente(1) ou incoerente(0) e justifique sua resposta no formato abaixo:
 Resultado: &lt;coerente(1)&gt; ou &lt;incoerente(0)&gt;
 Justificativa: &lt;JUSTIFICATIVA&gt;
 </v>
